--- a/Input/560125.xlsx
+++ b/Input/560125.xlsx
@@ -12,62 +12,62 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108271815C">Data1!$O$1:$O$10,Data1!$O$11:$O$39</definedName>
-    <definedName name="A108271815C_Data">Data1!$O$11:$O$39</definedName>
-    <definedName name="A108271815C_Latest">Data1!$O$39</definedName>
-    <definedName name="A108271816F">Data1!$F$1:$F$10,Data1!$F$11:$F$39</definedName>
-    <definedName name="A108271816F_Data">Data1!$F$11:$F$39</definedName>
-    <definedName name="A108271816F_Latest">Data1!$F$39</definedName>
-    <definedName name="A108276456C">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$39</definedName>
-    <definedName name="A108276456C_Data">Data1!$Q$11:$Q$39</definedName>
-    <definedName name="A108276456C_Latest">Data1!$Q$39</definedName>
-    <definedName name="A108276457F">Data1!$H$1:$H$10,Data1!$H$11:$H$39</definedName>
-    <definedName name="A108276457F_Data">Data1!$H$11:$H$39</definedName>
-    <definedName name="A108276457F_Latest">Data1!$H$39</definedName>
-    <definedName name="A108276470X">Data1!$P$1:$P$10,Data1!$P$11:$P$39</definedName>
-    <definedName name="A108276470X_Data">Data1!$P$11:$P$39</definedName>
-    <definedName name="A108276470X_Latest">Data1!$P$39</definedName>
-    <definedName name="A108276471A">Data1!$G$1:$G$10,Data1!$G$11:$G$39</definedName>
-    <definedName name="A108276471A_Data">Data1!$G$11:$G$39</definedName>
-    <definedName name="A108276471A_Latest">Data1!$G$39</definedName>
-    <definedName name="A108280831W">Data1!$M$1:$M$10,Data1!$M$11:$M$39</definedName>
-    <definedName name="A108280831W_Data">Data1!$M$11:$M$39</definedName>
-    <definedName name="A108280831W_Latest">Data1!$M$39</definedName>
-    <definedName name="A108280832X">Data1!$D$1:$D$10,Data1!$D$11:$D$39</definedName>
-    <definedName name="A108280832X_Data">Data1!$D$11:$D$39</definedName>
-    <definedName name="A108280832X_Latest">Data1!$D$39</definedName>
-    <definedName name="A108289868R">Data1!$R$1:$R$10,Data1!$R$11:$R$39</definedName>
-    <definedName name="A108289868R_Data">Data1!$R$11:$R$39</definedName>
-    <definedName name="A108289868R_Latest">Data1!$R$39</definedName>
-    <definedName name="A108289869T">Data1!$I$1:$I$10,Data1!$I$11:$I$39</definedName>
-    <definedName name="A108289869T_Data">Data1!$I$11:$I$39</definedName>
-    <definedName name="A108289869T_Latest">Data1!$I$39</definedName>
-    <definedName name="A108289875L">Data1!$L$1:$L$10,Data1!$L$11:$L$39</definedName>
-    <definedName name="A108289875L_Data">Data1!$L$11:$L$39</definedName>
-    <definedName name="A108289875L_Latest">Data1!$L$39</definedName>
-    <definedName name="A108289876R">Data1!$C$1:$C$10,Data1!$C$11:$C$39</definedName>
-    <definedName name="A108289876R_Data">Data1!$C$11:$C$39</definedName>
-    <definedName name="A108289876R_Latest">Data1!$C$39</definedName>
-    <definedName name="A108294593K">Data1!$S$1:$S$10,Data1!$S$11:$S$39</definedName>
-    <definedName name="A108294593K_Data">Data1!$S$11:$S$39</definedName>
-    <definedName name="A108294593K_Latest">Data1!$S$39</definedName>
-    <definedName name="A108294594L">Data1!$J$1:$J$10,Data1!$J$11:$J$39</definedName>
-    <definedName name="A108294594L_Data">Data1!$J$11:$J$39</definedName>
-    <definedName name="A108294594L_Latest">Data1!$J$39</definedName>
-    <definedName name="A108294607L">Data1!$N$1:$N$10,Data1!$N$11:$N$39</definedName>
-    <definedName name="A108294607L_Data">Data1!$N$11:$N$39</definedName>
-    <definedName name="A108294607L_Latest">Data1!$N$39</definedName>
-    <definedName name="A108294608R">Data1!$E$1:$E$10,Data1!$E$11:$E$39</definedName>
-    <definedName name="A108294608R_Data">Data1!$E$11:$E$39</definedName>
-    <definedName name="A108294608R_Latest">Data1!$E$39</definedName>
-    <definedName name="A108294614K">Data1!$K$1:$K$10,Data1!$K$11:$K$39</definedName>
-    <definedName name="A108294614K_Data">Data1!$K$11:$K$39</definedName>
-    <definedName name="A108294614K_Latest">Data1!$K$39</definedName>
-    <definedName name="A108294615L">Data1!$B$1:$B$10,Data1!$B$11:$B$39</definedName>
-    <definedName name="A108294615L_Data">Data1!$B$11:$B$39</definedName>
-    <definedName name="A108294615L_Latest">Data1!$B$39</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$39</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$39</definedName>
+    <definedName name="A108271815C">Data1!$O$1:$O$10,Data1!$O$11:$O$41</definedName>
+    <definedName name="A108271815C_Data">Data1!$O$11:$O$41</definedName>
+    <definedName name="A108271815C_Latest">Data1!$O$41</definedName>
+    <definedName name="A108271816F">Data1!$F$1:$F$10,Data1!$F$11:$F$41</definedName>
+    <definedName name="A108271816F_Data">Data1!$F$11:$F$41</definedName>
+    <definedName name="A108271816F_Latest">Data1!$F$41</definedName>
+    <definedName name="A108276456C">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$41</definedName>
+    <definedName name="A108276456C_Data">Data1!$Q$11:$Q$41</definedName>
+    <definedName name="A108276456C_Latest">Data1!$Q$41</definedName>
+    <definedName name="A108276457F">Data1!$H$1:$H$10,Data1!$H$11:$H$41</definedName>
+    <definedName name="A108276457F_Data">Data1!$H$11:$H$41</definedName>
+    <definedName name="A108276457F_Latest">Data1!$H$41</definedName>
+    <definedName name="A108276470X">Data1!$P$1:$P$10,Data1!$P$11:$P$41</definedName>
+    <definedName name="A108276470X_Data">Data1!$P$11:$P$41</definedName>
+    <definedName name="A108276470X_Latest">Data1!$P$41</definedName>
+    <definedName name="A108276471A">Data1!$G$1:$G$10,Data1!$G$11:$G$41</definedName>
+    <definedName name="A108276471A_Data">Data1!$G$11:$G$41</definedName>
+    <definedName name="A108276471A_Latest">Data1!$G$41</definedName>
+    <definedName name="A108280831W">Data1!$M$1:$M$10,Data1!$M$11:$M$41</definedName>
+    <definedName name="A108280831W_Data">Data1!$M$11:$M$41</definedName>
+    <definedName name="A108280831W_Latest">Data1!$M$41</definedName>
+    <definedName name="A108280832X">Data1!$D$1:$D$10,Data1!$D$11:$D$41</definedName>
+    <definedName name="A108280832X_Data">Data1!$D$11:$D$41</definedName>
+    <definedName name="A108280832X_Latest">Data1!$D$41</definedName>
+    <definedName name="A108289868R">Data1!$R$1:$R$10,Data1!$R$11:$R$41</definedName>
+    <definedName name="A108289868R_Data">Data1!$R$11:$R$41</definedName>
+    <definedName name="A108289868R_Latest">Data1!$R$41</definedName>
+    <definedName name="A108289869T">Data1!$I$1:$I$10,Data1!$I$11:$I$41</definedName>
+    <definedName name="A108289869T_Data">Data1!$I$11:$I$41</definedName>
+    <definedName name="A108289869T_Latest">Data1!$I$41</definedName>
+    <definedName name="A108289875L">Data1!$L$1:$L$10,Data1!$L$11:$L$41</definedName>
+    <definedName name="A108289875L_Data">Data1!$L$11:$L$41</definedName>
+    <definedName name="A108289875L_Latest">Data1!$L$41</definedName>
+    <definedName name="A108289876R">Data1!$C$1:$C$10,Data1!$C$11:$C$41</definedName>
+    <definedName name="A108289876R_Data">Data1!$C$11:$C$41</definedName>
+    <definedName name="A108289876R_Latest">Data1!$C$41</definedName>
+    <definedName name="A108294593K">Data1!$S$1:$S$10,Data1!$S$11:$S$41</definedName>
+    <definedName name="A108294593K_Data">Data1!$S$11:$S$41</definedName>
+    <definedName name="A108294593K_Latest">Data1!$S$41</definedName>
+    <definedName name="A108294594L">Data1!$J$1:$J$10,Data1!$J$11:$J$41</definedName>
+    <definedName name="A108294594L_Data">Data1!$J$11:$J$41</definedName>
+    <definedName name="A108294594L_Latest">Data1!$J$41</definedName>
+    <definedName name="A108294607L">Data1!$N$1:$N$10,Data1!$N$11:$N$41</definedName>
+    <definedName name="A108294607L_Data">Data1!$N$11:$N$41</definedName>
+    <definedName name="A108294607L_Latest">Data1!$N$41</definedName>
+    <definedName name="A108294608R">Data1!$E$1:$E$10,Data1!$E$11:$E$41</definedName>
+    <definedName name="A108294608R_Data">Data1!$E$11:$E$41</definedName>
+    <definedName name="A108294608R_Latest">Data1!$E$41</definedName>
+    <definedName name="A108294614K">Data1!$K$1:$K$10,Data1!$K$11:$K$41</definedName>
+    <definedName name="A108294614K_Data">Data1!$K$11:$K$41</definedName>
+    <definedName name="A108294614K_Latest">Data1!$K$41</definedName>
+    <definedName name="A108294615L">Data1!$B$1:$B$10,Data1!$B$11:$B$41</definedName>
+    <definedName name="A108294615L_Data">Data1!$B$11:$B$41</definedName>
+    <definedName name="A108294615L_Latest">Data1!$B$41</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$41</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1339,6 +1339,110 @@
         </r>
       </text>
     </comment>
+    <comment ref="H40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1523,7 +1627,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -2225,10 +2329,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
@@ -2257,10 +2361,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
@@ -2289,10 +2393,10 @@
         <v>43647</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
@@ -2321,10 +2425,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
@@ -2353,10 +2457,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>27</v>
@@ -2385,10 +2489,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
@@ -2417,10 +2521,10 @@
         <v>43647</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
@@ -2449,10 +2553,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>27</v>
@@ -2481,10 +2585,10 @@
         <v>43647</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>27</v>
@@ -2513,10 +2617,10 @@
         <v>43647</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>40</v>
@@ -2545,10 +2649,10 @@
         <v>43647</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>40</v>
@@ -2577,10 +2681,10 @@
         <v>43647</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>40</v>
@@ -2609,10 +2713,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -2641,10 +2745,10 @@
         <v>43647</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -2673,10 +2777,10 @@
         <v>43647</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -2705,10 +2809,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>40</v>
@@ -2737,10 +2841,10 @@
         <v>43647</v>
       </c>
       <c r="G28" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H28" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>40</v>
@@ -2769,10 +2873,10 @@
         <v>43647</v>
       </c>
       <c r="G29" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H29" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>40</v>
@@ -2825,7 +2929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3254,58 +3358,58 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="R8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="S8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -3313,58 +3417,58 @@
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -4947,6 +5051,108 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9">
         <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1023</v>
+      </c>
+      <c r="C40" s="8">
+        <v>326</v>
+      </c>
+      <c r="D40" s="8">
+        <v>263</v>
+      </c>
+      <c r="E40" s="8">
+        <v>239</v>
+      </c>
+      <c r="F40" s="8">
+        <v>61</v>
+      </c>
+      <c r="G40" s="8">
+        <v>88</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8">
+        <v>32</v>
+      </c>
+      <c r="K40" s="9">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="L40" s="9">
+        <v>231.6</v>
+      </c>
+      <c r="M40" s="9">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="N40" s="9">
+        <v>121.7</v>
+      </c>
+      <c r="O40" s="9">
+        <v>24.2</v>
+      </c>
+      <c r="P40" s="9">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="8">
+        <v>689</v>
+      </c>
+      <c r="C41" s="8">
+        <v>219</v>
+      </c>
+      <c r="D41" s="8">
+        <v>189</v>
+      </c>
+      <c r="E41" s="8">
+        <v>146</v>
+      </c>
+      <c r="F41" s="8">
+        <v>40</v>
+      </c>
+      <c r="G41" s="8">
+        <v>63</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9">
+        <v>378.2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>144.1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>107</v>
+      </c>
+      <c r="N41" s="9">
+        <v>71</v>
+      </c>
+      <c r="O41" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P41" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9">
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
